--- a/[MDS]/FINAL/(Apuntes VCs).xlsx
+++ b/[MDS]/FINAL/(Apuntes VCs).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>ECS1</t>
   </si>
@@ -85,39 +85,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>*Seleccionar Cliente</t>
-  </si>
-  <si>
-    <t>Datos Fletero</t>
-  </si>
-  <si>
     <t>(Nuevos) Datos Carga</t>
-  </si>
-  <si>
-    <t>Actualizar Estado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*NOTA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En los CU, es evidente el "Alta" del Cliente, no el recupero. Debería explicitarse.</t>
-    </r>
   </si>
   <si>
     <t>*Asignar Unidades</t>
@@ -152,9 +120,6 @@
     <t>Modifica OT</t>
   </si>
   <si>
-    <t>OT Modificada</t>
-  </si>
-  <si>
     <t>Hoja de Ruta</t>
   </si>
   <si>
@@ -242,15 +207,7 @@
   </si>
   <si>
     <t>NO
-(Asesor Comercial figura como actor)</t>
-  </si>
-  <si>
-    <t>NO
 (Cliente no figura)</t>
-  </si>
-  <si>
-    <t>NO
-(Encargado Logística figura como actor)</t>
   </si>
   <si>
     <t>CONTEO DE CLASES</t>
@@ -289,13 +246,19 @@
   </si>
   <si>
     <t>COINCIDE ECS2 CON SU RF Y DS</t>
+  </si>
+  <si>
+    <t>ECS2</t>
+  </si>
+  <si>
+    <t>facturar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,15 +289,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,71 +457,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -888,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,531 +911,485 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="6"/>
-      <c r="D7" s="10" t="s">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="6"/>
-      <c r="D16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+      <c r="F31" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="G31" s="17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="18" t="s">
+      <c r="H31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="18" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="D32" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F32" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G32" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="G33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="G34" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="15" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>49</v>
-      </c>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="16"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-    </row>
-    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="7" t="s">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C55" s="19"/>
+      <c r="D55" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="60" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="E60" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C61" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.45">
-      <c r="A49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="21" t="s">
+      <c r="F61" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="20"/>
-      <c r="D58" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-    </row>
-    <row r="63" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C64" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C65" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="D50:D58">
     <sortCondition ref="D50"/>
   </sortState>
-  <conditionalFormatting sqref="G2:I7">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+  <conditionalFormatting sqref="G2:I6 G11:I13">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44:H44">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C41:H41">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D64:F65">
+  <conditionalFormatting sqref="D61:F62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>""""""</formula>
     </cfRule>
